--- a/2024/Fall 2024/TFES Lab/Spark Ignition Engine/SparkIgnitionEngine_RawDataSheet.xlsx
+++ b/2024/Fall 2024/TFES Lab/Spark Ignition Engine/SparkIgnitionEngine_RawDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyl\OneDrive\Documents\School\2024\Fall 2024\TFES Lab\Spark Ignition Engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brand\Documents\SchoolFiles\2024\Fall 2024\TFES Lab\Spark Ignition Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31F5FB-0987-4816-A6C3-11B9F10A9B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8FE683-863E-44F0-B91A-B1BC9AB4F3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data Sheet" sheetId="1" r:id="rId1"/>
@@ -866,56 +866,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,52 +1304,52 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.2">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:11" ht="27.75">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="37.950000000000003" customHeight="1">
-      <c r="B2" s="45" t="s">
+    <row r="2" spans="1:11" ht="37.9" customHeight="1">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="37.950000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="37.9" customHeight="1" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="34">
         <v>0.29236111111111113</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1476,7 +1476,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1">
+    <row r="12" spans="1:11" ht="40.15" customHeight="1" thickBot="1">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6"/>
@@ -1488,47 +1488,47 @@
       <c r="J12" s="6"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="1:11" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.05" customHeight="1" thickTop="1">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.15" customHeight="1" thickTop="1">
       <c r="B14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="35">
         <v>36.44</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="35">
         <v>40.31</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="35">
         <v>41.97</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="35">
         <v>43.57</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="37">
         <v>55.93</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.05" customHeight="1">
+    <row r="15" spans="1:11" ht="28.15" customHeight="1">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" ht="28.05" customHeight="1">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="28.15" customHeight="1">
       <c r="B16" s="30" t="s">
         <v>26</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="28.05" customHeight="1">
+    <row r="17" spans="2:8" ht="28.15" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="2:8" ht="28.05" customHeight="1">
+    <row r="18" spans="2:8" ht="28.15" customHeight="1">
       <c r="B18" s="16" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="28.05" customHeight="1">
+    <row r="19" spans="2:8" ht="28.15" customHeight="1">
       <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
@@ -1588,37 +1588,37 @@
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="28.05" customHeight="1">
+    <row r="20" spans="2:8" ht="28.15" customHeight="1">
       <c r="B20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="46">
         <v>10.199999999999999</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="46">
         <v>10.199999999999999</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="46">
         <v>10.199999999999999</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="46">
         <v>10.199999999999999</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="47">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="28.05" customHeight="1">
+    <row r="21" spans="2:8" ht="28.15" customHeight="1">
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="2:8" ht="28.05" customHeight="1">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="2:8" ht="28.15" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>27</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="28.05" customHeight="1">
+    <row r="23" spans="2:8" ht="28.15" customHeight="1">
       <c r="B23" s="16" t="s">
         <v>10</v>
       </c>
@@ -1648,123 +1648,123 @@
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="2:8" ht="28.05" customHeight="1">
+    <row r="24" spans="2:8" ht="28.15" customHeight="1">
       <c r="B24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="46">
         <v>20.7</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="46">
         <v>20.7</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="46">
         <v>20.8</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="46">
         <v>20.9</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="47">
         <v>20.9</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="28.05" customHeight="1">
+    <row r="25" spans="2:8" ht="28.15" customHeight="1">
       <c r="B25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="2:8" ht="28.05" customHeight="1">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="2:8" ht="28.15" customHeight="1">
       <c r="B26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="46">
         <v>22.5</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="46">
         <v>22.6</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="46">
         <v>22.8</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="46">
         <v>23</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="47">
         <v>23.1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="28.05" customHeight="1">
+    <row r="27" spans="2:8" ht="28.15" customHeight="1">
       <c r="B27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="2:8" ht="28.05" customHeight="1">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="2:8" ht="28.15" customHeight="1">
       <c r="B28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="46">
         <v>522</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="46">
         <v>510</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="46">
         <v>493</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="46">
         <v>470</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="47">
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="28.05" customHeight="1" thickBot="1">
+    <row r="29" spans="2:8" ht="28.15" customHeight="1" thickBot="1">
       <c r="B29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="42"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="2:8" ht="9" customHeight="1" thickTop="1"/>
-    <row r="31" spans="2:8" ht="19.05" customHeight="1">
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="2:8" ht="19.149999999999999" customHeight="1">
+      <c r="B31" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" spans="2:8" ht="52.05" customHeight="1" thickBot="1">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="2:8" ht="52.15" customHeight="1" thickBot="1">
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="2:8" ht="31.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="2:8" ht="31.9" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="2:8" ht="24" customHeight="1" thickTop="1">
@@ -1847,22 +1847,6 @@
     <row r="49" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="E20:E21"/>
@@ -1879,10 +1863,26 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.63" right="0.61" top="0.5" bottom="0.74" header="0.5" footer="0.5"/>
-  <pageSetup scale="66" orientation="portrait"/>
+  <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>